--- a/auditoria_remediada.xlsx
+++ b/auditoria_remediada.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
@@ -584,7 +584,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C12" t="n">
         <v>70</v>
       </c>
       <c r="D12" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
@@ -652,7 +652,7 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>60</v>
+        <v>53.33</v>
       </c>
     </row>
   </sheetData>
